--- a/SourceCode/2024/Feb 2024/Anusha k/Task30/bank.xlsx
+++ b/SourceCode/2024/Feb 2024/Anusha k/Task30/bank.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e07be0ad463409e5/Documents/GitHub/RPA-Developer-in-30-Days/SourceCode/2024/Feb 2024/Anusha k/Task 7/Task30/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e07be0ad463409e5/Documents/GitHub/RPA-Developer-in-30-Days/SourceCode/2024/Feb 2024/Anusha k/Task30/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="14" documentId="11_F25DC773A252ABDACC1048B4291E6F785BDE58ED" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{58BFCD5E-F417-4E97-B7AA-41F4D449D9DD}"/>
+  <xr:revisionPtr revIDLastSave="16" documentId="11_F25DC773A252ABDACC1048B4291E6F785BDE58ED" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{71A49D01-1AE3-4FEC-BD94-DF1DFEE1EF7F}"/>
   <bookViews>
     <workbookView xWindow="2205" yWindow="2205" windowWidth="15360" windowHeight="7785" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -98,6 +98,14 @@
 </file>
 
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=xl/persons/person0.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=xl/persons/person1.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
@@ -385,7 +393,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
